--- a/data/trans_dic/DCD_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/DCD_R-Provincia-trans_dic.xlsx
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,61; 15,96</t>
+          <t>9,03; 16,47</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,69; 22,67</t>
+          <t>15,55; 22,25</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,09; 17,98</t>
+          <t>13,16; 17,97</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,63; 16,46</t>
+          <t>9,53; 16,36</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>25,23; 32,15</t>
+          <t>25,13; 32,12</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,4; 23,73</t>
+          <t>18,53; 23,41</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,43; 22,37</t>
+          <t>14,51; 22,57</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>26,32; 34,0</t>
+          <t>26,19; 33,87</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,86; 27,25</t>
+          <t>21,97; 27,34</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,62; 21,69</t>
+          <t>12,79; 21,18</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>22,68; 31,51</t>
+          <t>22,59; 32,02</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,56; 25,73</t>
+          <t>19,74; 26,19</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,87; 15,32</t>
+          <t>7,72; 15,51</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,26; 22,36</t>
+          <t>13,29; 23,17</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,17; 18,57</t>
+          <t>11,99; 18,35</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>17,62; 25,64</t>
+          <t>17,48; 26,37</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>31,14; 40,56</t>
+          <t>30,57; 40,05</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>25,08; 31,46</t>
+          <t>25,58; 31,73</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,02; 20,4</t>
+          <t>14,23; 20,52</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>19,5; 38,5</t>
+          <t>18,71; 38,36</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>19,3; 28,6</t>
+          <t>19,6; 28,77</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>8,18; 12,51</t>
+          <t>8,24; 12,94</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>20,42; 25,97</t>
+          <t>20,37; 26,01</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>14,67; 18,84</t>
+          <t>14,61; 18,56</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>13,24; 15,88</t>
+          <t>13,15; 15,72</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>24,74; 28,72</t>
+          <t>24,31; 28,75</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>19,82; 22,11</t>
+          <t>19,81; 22,15</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/DCD_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/DCD_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,03; 16,47</t>
+          <t>8,61; 15,96</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,55; 22,25</t>
+          <t>15,69; 22,67</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,16; 17,97</t>
+          <t>13,09; 17,98</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,53; 16,36</t>
+          <t>9,63; 16,46</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>25,13; 32,12</t>
+          <t>25,23; 32,15</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,53; 23,41</t>
+          <t>18,4; 23,73</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,51; 22,57</t>
+          <t>14,43; 22,37</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>26,19; 33,87</t>
+          <t>26,32; 34,0</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,97; 27,34</t>
+          <t>21,86; 27,25</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,79; 21,18</t>
+          <t>12,62; 21,69</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>22,59; 32,02</t>
+          <t>22,68; 31,51</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,74; 26,19</t>
+          <t>19,56; 25,73</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,72; 15,51</t>
+          <t>7,87; 15,32</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>13,29; 23,17</t>
+          <t>12,26; 22,36</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>11,99; 18,35</t>
+          <t>12,17; 18,57</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>17,48; 26,37</t>
+          <t>17,62; 25,64</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>30,57; 40,05</t>
+          <t>31,14; 40,56</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>25,58; 31,73</t>
+          <t>25,08; 31,46</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,23; 20,52</t>
+          <t>14,02; 20,4</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>18,71; 38,36</t>
+          <t>19,5; 38,5</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>19,6; 28,77</t>
+          <t>19,3; 28,6</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>8,24; 12,94</t>
+          <t>8,18; 12,51</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>20,37; 26,01</t>
+          <t>20,42; 25,97</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>14,61; 18,56</t>
+          <t>14,67; 18,84</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>13,15; 15,72</t>
+          <t>13,24; 15,88</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>24,31; 28,75</t>
+          <t>24,74; 28,72</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>19,81; 22,15</t>
+          <t>19,82; 22,11</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/DCD_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/DCD_R-Provincia-trans_dic.xlsx
@@ -556,17 +556,17 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>12,08%</t>
+          <t>11,36%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>18,88%</t>
+          <t>18,41%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>15,56%</t>
+          <t>14,75%</t>
         </is>
       </c>
     </row>
@@ -579,17 +579,17 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,61; 15,96</t>
+          <t>8,07; 15,11</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,69; 22,67</t>
+          <t>15,17; 22,18</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>13,09; 17,98</t>
+          <t>12,38; 17,23</t>
         </is>
       </c>
     </row>
@@ -606,17 +606,17 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>12,62%</t>
+          <t>12,22%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>28,62%</t>
+          <t>28,56%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>20,88%</t>
+          <t>20,37%</t>
         </is>
       </c>
     </row>
@@ -629,17 +629,17 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,63; 16,46</t>
+          <t>9,22; 16,04</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>25,23; 32,15</t>
+          <t>25,24; 32,13</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>18,4; 23,73</t>
+          <t>17,83; 23,13</t>
         </is>
       </c>
     </row>
@@ -656,17 +656,17 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>18,38%</t>
+          <t>17,91%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>29,98%</t>
+          <t>29,75%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>24,61%</t>
+          <t>24,12%</t>
         </is>
       </c>
     </row>
@@ -679,17 +679,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,43; 22,37</t>
+          <t>14,05; 21,92</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>26,32; 34,0</t>
+          <t>26,08; 33,73</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,86; 27,25</t>
+          <t>21,4; 26,75</t>
         </is>
       </c>
     </row>
@@ -706,17 +706,17 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>16,84%</t>
+          <t>16,45%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>26,98%</t>
+          <t>22,53%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>22,63%</t>
+          <t>20,12%</t>
         </is>
       </c>
     </row>
@@ -729,17 +729,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,62; 21,69</t>
+          <t>12,17; 21,34</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>22,68; 31,51</t>
+          <t>12,88; 28,67</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>19,56; 25,73</t>
+          <t>14,95; 23,71</t>
         </is>
       </c>
     </row>
@@ -756,17 +756,17 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
-          <t>11,23%</t>
+          <t>11,2%</t>
         </is>
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>18,38%</t>
+          <t>16,74%</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>15,3%</t>
+          <t>14,48%</t>
         </is>
       </c>
     </row>
@@ -779,17 +779,17 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,87; 15,32</t>
+          <t>7,89; 15,29</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>12,26; 22,36</t>
+          <t>8,63; 21,98</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>12,17; 18,57</t>
+          <t>9,79; 17,66</t>
         </is>
       </c>
     </row>
@@ -806,17 +806,17 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>21,19%</t>
+          <t>20,86%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>35,65%</t>
+          <t>35,58%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>28,4%</t>
+          <t>28,04%</t>
         </is>
       </c>
     </row>
@@ -829,17 +829,17 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>17,62; 25,64</t>
+          <t>17,3; 25,33</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>31,14; 40,56</t>
+          <t>31,12; 40,49</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>25,08; 31,46</t>
+          <t>24,68; 31,08</t>
         </is>
       </c>
     </row>
@@ -856,17 +856,17 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>17,08%</t>
+          <t>16,54%</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>32,03%</t>
+          <t>27,98%</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>25,48%</t>
+          <t>23,13%</t>
         </is>
       </c>
     </row>
@@ -879,17 +879,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>14,02; 20,4</t>
+          <t>13,52; 19,84</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>19,5; 38,5</t>
+          <t>12,97; 38,17</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>19,3; 28,6</t>
+          <t>14,23; 27,71</t>
         </is>
       </c>
     </row>
@@ -906,17 +906,17 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>10,39%</t>
+          <t>8,21%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>22,92%</t>
+          <t>23,09%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>16,69%</t>
+          <t>14,7%</t>
         </is>
       </c>
     </row>
@@ -929,17 +929,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>8,18; 12,51</t>
+          <t>3,54; 11,86</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>20,42; 25,97</t>
+          <t>20,62; 25,99</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>14,67; 18,84</t>
+          <t>8,88; 17,96</t>
         </is>
       </c>
     </row>
@@ -956,17 +956,17 @@
       </c>
       <c r="C20" s="2" t="inlineStr">
         <is>
-          <t>14,41%</t>
+          <t>13,37%</t>
         </is>
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>27,12%</t>
+          <t>25,58%</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>21,16%</t>
+          <t>19,69%</t>
         </is>
       </c>
     </row>
@@ -979,17 +979,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>13,24; 15,88</t>
+          <t>10,56; 14,95</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>24,74; 28,72</t>
+          <t>21,49; 27,86</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>19,82; 22,11</t>
+          <t>16,93; 21,2</t>
         </is>
       </c>
     </row>

--- a/data/trans_dic/DCD_R-Provincia-trans_dic.xlsx
+++ b/data/trans_dic/DCD_R-Provincia-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Variables dicotomizadas" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -546,7 +547,7 @@
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
         <is>
-          <t>Almeria</t>
+          <t>Almería</t>
         </is>
       </c>
       <c r="B4" s="3" t="inlineStr">
@@ -579,24 +580,24 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>8,07; 15,11</t>
+          <t>8,12; 15,3</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>15,17; 22,18</t>
+          <t>15,04; 22,06</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12,38; 17,23</t>
+          <t>12,24; 17,27</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
         <is>
-          <t>Cadiz</t>
+          <t>Cádiz</t>
         </is>
       </c>
       <c r="B6" s="3" t="inlineStr">
@@ -629,24 +630,24 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>9,22; 16,04</t>
+          <t>9,53; 16,53</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>25,24; 32,13</t>
+          <t>25,06; 31,85</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>17,83; 23,13</t>
+          <t>17,81; 22,95</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
         <is>
-          <t>Cordoba</t>
+          <t>Córdoba</t>
         </is>
       </c>
       <c r="B8" s="3" t="inlineStr">
@@ -679,17 +680,17 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>14,05; 21,92</t>
+          <t>14,53; 22,43</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>26,08; 33,73</t>
+          <t>26,31; 34,19</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>21,4; 26,75</t>
+          <t>21,44; 27,21</t>
         </is>
       </c>
     </row>
@@ -729,17 +730,17 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,17; 21,34</t>
+          <t>12,67; 21,5</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>12,88; 28,67</t>
+          <t>13,35; 28,93</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>14,95; 23,71</t>
+          <t>15,38; 23,81</t>
         </is>
       </c>
     </row>
@@ -779,24 +780,24 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>7,89; 15,29</t>
+          <t>8,02; 15,46</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>8,63; 21,98</t>
+          <t>7,94; 21,99</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,79; 17,66</t>
+          <t>9,37; 17,35</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
         <is>
-          <t>Jaen</t>
+          <t>Jaén</t>
         </is>
       </c>
       <c r="B14" s="3" t="inlineStr">
@@ -829,24 +830,24 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>17,3; 25,33</t>
+          <t>16,91; 25,36</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>31,12; 40,49</t>
+          <t>31,03; 40,45</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>24,68; 31,08</t>
+          <t>24,85; 31,37</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Malaga</t>
+          <t>Málaga</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -879,17 +880,17 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>13,52; 19,84</t>
+          <t>13,55; 19,61</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>12,97; 38,17</t>
+          <t>14,71; 37,76</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>14,23; 27,71</t>
+          <t>13,8; 27,54</t>
         </is>
       </c>
     </row>
@@ -929,17 +930,17 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>3,54; 11,86</t>
+          <t>3,71; 11,81</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>20,62; 25,99</t>
+          <t>20,66; 26,02</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>8,88; 17,96</t>
+          <t>9,21; 17,87</t>
         </is>
       </c>
     </row>
@@ -979,17 +980,17 @@
       </c>
       <c r="C21" s="2" t="inlineStr">
         <is>
-          <t>10,56; 14,95</t>
+          <t>10,42; 14,94</t>
         </is>
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>21,49; 27,86</t>
+          <t>20,8; 27,7</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>16,93; 21,2</t>
+          <t>17,11; 21,21</t>
         </is>
       </c>
     </row>
@@ -1015,4 +1016,758 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:E31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población con dolor crónico discapacitante (incluye Otro dolor crónico)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="E1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>2023</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Almería</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>44</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>111</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>155</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>35365</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>53312</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>88677</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>25293; 47636</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>43563; 63894</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>73571; 103780</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Cádiz</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>54</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>216</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>270</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>63358</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>147092</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>210450</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>49415; 85673</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>129061; 164022</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>184060; 237190</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Córdoba</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>77</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>184</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>261</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>56592</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>103862</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>160454</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>45934; 70894</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>91858; 119354</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>142628; 180972</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Granada</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>59</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>197</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>256</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>51425</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>107156</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>158582</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>39616; 67200</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>63486; 137628</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>121204; 187675</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Huelva</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>33</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>103</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>136</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>20020</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>43327</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>63347</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>14342; 27633</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>20541; 56911</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>40974; 75914</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>Jaén</t>
+        </is>
+      </c>
+      <c r="B19" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C19" s="2" t="inlineStr">
+        <is>
+          <t>95</t>
+        </is>
+      </c>
+      <c r="D19" s="2" t="inlineStr">
+        <is>
+          <t>193</t>
+        </is>
+      </c>
+      <c r="E19" s="2" t="inlineStr">
+        <is>
+          <t>288</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n"/>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>56255</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>91452</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>147706</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>45604; 68378</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>79768; 103980</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>130895; 165214</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="inlineStr">
+        <is>
+          <t>Málaga</t>
+        </is>
+      </c>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>112</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>366</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>478</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>103280</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>237613</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>340894</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n"/>
+      <c r="B24" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C24" s="2" t="inlineStr">
+        <is>
+          <t>84604; 122442</t>
+        </is>
+      </c>
+      <c r="D24" s="2" t="inlineStr">
+        <is>
+          <t>124896; 320676</t>
+        </is>
+      </c>
+      <c r="E24" s="2" t="inlineStr">
+        <is>
+          <t>203329; 405816</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="inlineStr">
+        <is>
+          <t>Sevilla</t>
+        </is>
+      </c>
+      <c r="B25" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C25" s="2" t="inlineStr">
+        <is>
+          <t>101</t>
+        </is>
+      </c>
+      <c r="D25" s="2" t="inlineStr">
+        <is>
+          <t>274</t>
+        </is>
+      </c>
+      <c r="E25" s="2" t="inlineStr">
+        <is>
+          <t>375</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n"/>
+      <c r="B26" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C26" s="2" t="inlineStr">
+        <is>
+          <t>76284</t>
+        </is>
+      </c>
+      <c r="D26" s="2" t="inlineStr">
+        <is>
+          <t>165731</t>
+        </is>
+      </c>
+      <c r="E26" s="2" t="inlineStr">
+        <is>
+          <t>242016</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n"/>
+      <c r="B27" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C27" s="2" t="inlineStr">
+        <is>
+          <t>34412; 109724</t>
+        </is>
+      </c>
+      <c r="D27" s="2" t="inlineStr">
+        <is>
+          <t>148288; 186763</t>
+        </is>
+      </c>
+      <c r="E27" s="2" t="inlineStr">
+        <is>
+          <t>151672; 294267</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B28" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C28" s="2" t="inlineStr">
+        <is>
+          <t>575</t>
+        </is>
+      </c>
+      <c r="D28" s="2" t="inlineStr">
+        <is>
+          <t>1644</t>
+        </is>
+      </c>
+      <c r="E28" s="2" t="inlineStr">
+        <is>
+          <t>2219</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n"/>
+      <c r="B29" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C29" s="2" t="inlineStr">
+        <is>
+          <t>462580</t>
+        </is>
+      </c>
+      <c r="D29" s="2" t="inlineStr">
+        <is>
+          <t>949546</t>
+        </is>
+      </c>
+      <c r="E29" s="2" t="inlineStr">
+        <is>
+          <t>1412125</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n"/>
+      <c r="B30" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C30" s="2" t="inlineStr">
+        <is>
+          <t>360611; 516813</t>
+        </is>
+      </c>
+      <c r="D30" s="2" t="inlineStr">
+        <is>
+          <t>772295; 1028292</t>
+        </is>
+      </c>
+      <c r="E30" s="2" t="inlineStr">
+        <is>
+          <t>1227473; 1521176</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="10">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A25:A27"/>
+    <mergeCell ref="A28:A30"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="A13:A15"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>